--- a/biology/Biologie cellulaire et moléculaire/Daniel_Cohen_(généticien)/Daniel_Cohen_(généticien).xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Daniel_Cohen_(généticien)/Daniel_Cohen_(généticien).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Daniel_Cohen_(g%C3%A9n%C3%A9ticien)</t>
+          <t>Daniel_Cohen_(généticien)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Daniel Cohen, né le 25 février 1951 à Tunis[1], est un généticien tunisien naturalisé français qui dirigea la réalisation de la première carte du génome humain en 1993[2],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Daniel Cohen, né le 25 février 1951 à Tunis, est un généticien tunisien naturalisé français qui dirigea la réalisation de la première carte du génome humain en 1993,.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Daniel_Cohen_(g%C3%A9n%C3%A9ticien)</t>
+          <t>Daniel_Cohen_(généticien)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pionnier de la génétique médicale, de la génomique et de la pharmacogénomique, il est l'un des fondateurs du Centre d'étude du polymorphisme humain aux côtés de Jean Dausset, prix Nobel de médecine. 
 Il est également l'un des fondateurs du Généthon pour lequel il a géré l'équipe chargée de définir la carte physique du génome humain en 1993. Il est à l'origine des « bio-robots », machines développées spécifiquement pour accélérer la découverte du génome.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Daniel_Cohen_(g%C3%A9n%C3%A9ticien)</t>
+          <t>Daniel_Cohen_(généticien)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Livre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les Gènes de l'espoir, chez Robert Laffont  (ISBN 978-2-221-07530-2)</t>
         </is>
